--- a/Output/28_02_2023/DOP_AR062331.xlsx
+++ b/Output/28_02_2023/DOP_AR062331.xlsx
@@ -31,13 +31,13 @@
     <x:t>AR062331</x:t>
   </x:si>
   <x:si>
-    <x:t>Diseño de planes</x:t>
+    <x:t>Diseño de PlanesDiseño de Planes...diseño de planos...No se han podido cargar todos los resultadosReintentarIntentándolo de nuevo...</x:t>
   </x:si>
   <x:si>
     <x:t>DOP</x:t>
   </x:si>
   <x:si>
-    <x:t>planos arquitectónicos o de ingeniería</x:t>
+    <x:t>planos arquitectonicos o de ingenieria</x:t>
   </x:si>
 </x:sst>
 </file>
